--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,36 +40,27 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
@@ -79,153 +70,135 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>friend</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -239,6 +212,9 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -596,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.88</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -915,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7012987012987013</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C8">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="D8">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6470588235294118</v>
+        <v>0.52</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6363636363636364</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8214285714285714</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.28</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.2189922480620155</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1183,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>403</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7843137254901961</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1215,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5416666666666666</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3928571428571428</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,655 +1259,487 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="L15">
+        <v>89</v>
+      </c>
+      <c r="M15">
+        <v>89</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>0.7264150943396226</v>
+      </c>
+      <c r="L17">
+        <v>77</v>
+      </c>
+      <c r="M17">
+        <v>77</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.7253521126760564</v>
+      </c>
+      <c r="L18">
+        <v>103</v>
+      </c>
+      <c r="M18">
+        <v>103</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L19">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>0.7</v>
+      </c>
+      <c r="L20">
+        <v>112</v>
+      </c>
+      <c r="M20">
+        <v>112</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L21">
+        <v>43</v>
+      </c>
+      <c r="M21">
+        <v>43</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K15">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L15">
+      <c r="K22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L22">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>24</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L23">
+        <v>32</v>
+      </c>
+      <c r="M23">
+        <v>32</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L24">
+        <v>18</v>
+      </c>
+      <c r="M24">
+        <v>18</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>22</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>0.6274509803921569</v>
+      </c>
+      <c r="L26">
+        <v>32</v>
+      </c>
+      <c r="M26">
+        <v>32</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27">
+        <v>0.6</v>
+      </c>
+      <c r="L27">
         <v>30</v>
       </c>
-      <c r="M15">
+      <c r="M27">
         <v>30</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3703703703703703</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L16">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28">
+        <v>0.5851063829787234</v>
+      </c>
+      <c r="L28">
+        <v>55</v>
+      </c>
+      <c r="M28">
+        <v>55</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L29">
+        <v>15</v>
+      </c>
+      <c r="M29">
+        <v>15</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30">
+        <v>0.5326370757180157</v>
+      </c>
+      <c r="L30">
+        <v>204</v>
+      </c>
+      <c r="M30">
+        <v>204</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L31">
+        <v>45</v>
+      </c>
+      <c r="M31">
+        <v>45</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>44</v>
       </c>
-      <c r="M16">
-        <v>44</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32">
+        <v>0.4680851063829787</v>
+      </c>
+      <c r="L32">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.3390557939914163</v>
-      </c>
-      <c r="C17">
-        <v>79</v>
-      </c>
-      <c r="D17">
-        <v>79</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>154</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>0.72</v>
-      </c>
-      <c r="L17">
-        <v>18</v>
-      </c>
-      <c r="M17">
-        <v>18</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>14</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L18">
-        <v>20</v>
-      </c>
-      <c r="M18">
-        <v>20</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C19">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>65</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L19">
-        <v>16</v>
-      </c>
-      <c r="M19">
-        <v>16</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
+      <c r="M32">
+        <v>22</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.225</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>62</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>0.6438356164383562</v>
-      </c>
-      <c r="L20">
-        <v>47</v>
-      </c>
-      <c r="M20">
-        <v>47</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>31</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L21">
-        <v>8</v>
-      </c>
-      <c r="M21">
-        <v>8</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>95</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L22">
-        <v>16</v>
-      </c>
-      <c r="M22">
-        <v>16</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L23">
-        <v>8</v>
-      </c>
-      <c r="M23">
-        <v>8</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L24">
-        <v>20</v>
-      </c>
-      <c r="M24">
-        <v>20</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25">
-        <v>0.6</v>
-      </c>
-      <c r="L25">
-        <v>15</v>
-      </c>
-      <c r="M25">
-        <v>15</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27">
-        <v>7</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L28">
-        <v>11</v>
-      </c>
-      <c r="M28">
-        <v>11</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L29">
-        <v>7</v>
-      </c>
-      <c r="M29">
-        <v>7</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L30">
-        <v>15</v>
-      </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31">
-        <v>0.5347222222222222</v>
-      </c>
-      <c r="L31">
-        <v>77</v>
-      </c>
-      <c r="M31">
-        <v>77</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="L32">
-        <v>16</v>
-      </c>
-      <c r="M32">
-        <v>16</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5258215962441315</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L33">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="M33">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1943,21 +1751,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>101</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.4961240310077519</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L34">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="M34">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1969,21 +1777,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>65</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.4705882352941176</v>
+        <v>0.425</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1995,21 +1803,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4545454545454545</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2021,21 +1829,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.4239130434782609</v>
+        <v>0.401673640167364</v>
       </c>
       <c r="L37">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2047,21 +1855,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>53</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K38">
         <v>0.4</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2073,21 +1881,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.375</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L39">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2099,21 +1907,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.35</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2125,21 +1933,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.3428571428571429</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2151,21 +1959,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.32</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2177,21 +1985,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.2162162162162162</v>
+        <v>0.02996670366259711</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2203,137 +2011,111 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>29</v>
+        <v>874</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.2105263157894737</v>
+        <v>0.02463605823068309</v>
       </c>
       <c r="L44">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>30</v>
+        <v>871</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.03286384976525822</v>
+        <v>0.01616628175519631</v>
       </c>
       <c r="L45">
         <v>14</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>412</v>
+        <v>852</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.02926829268292683</v>
+        <v>0.01307800093414292</v>
       </c>
       <c r="L46">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>398</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.01576576576576576</v>
+        <v>0.009990331936835321</v>
       </c>
       <c r="L47">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K48">
-        <v>0.007136485280999108</v>
-      </c>
-      <c r="L48">
-        <v>8</v>
-      </c>
-      <c r="M48">
-        <v>10</v>
-      </c>
-      <c r="N48">
-        <v>0.8</v>
-      </c>
-      <c r="O48">
-        <v>0.2</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>1113</v>
+        <v>3072</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>killed</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
@@ -58,90 +58,108 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>love</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -151,13 +169,7 @@
     <t>credit</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>energy</t>
   </si>
   <si>
     <t>friends</t>
@@ -169,52 +181,55 @@
     <t>care</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -572,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7307692307692307</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6388888888888888</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5924657534246576</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5862068965517241</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,16 +977,16 @@
         <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.52</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3684210526315789</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8170731707317073</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1106,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.28</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="M12">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1156,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2189922480620155</v>
+        <v>0.2034883720930233</v>
       </c>
       <c r="C13">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D13">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8103448275862069</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L13">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2169312169312169</v>
+        <v>0.2</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1241,63 +1256,87 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1409395973154362</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>134</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L15">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>128</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15">
-        <v>0.7416666666666667</v>
-      </c>
-      <c r="L15">
-        <v>89</v>
-      </c>
-      <c r="M15">
-        <v>89</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="B16">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>236</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K16">
-        <v>0.7368421052631579</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L17">
         <v>36</v>
       </c>
-      <c r="K17">
-        <v>0.7264150943396226</v>
-      </c>
-      <c r="L17">
-        <v>77</v>
-      </c>
       <c r="M17">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1335,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.7253521126760564</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L18">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1361,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1387,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="L20">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="M20">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1413,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6825396825396826</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1439,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1465,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1496,16 +1535,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1517,21 +1556,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.6470588235294118</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1543,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.6274509803921569</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1569,21 +1608,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1595,21 +1634,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.5851063829787234</v>
+        <v>0.5625</v>
       </c>
       <c r="L28">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1621,21 +1660,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.5357142857142857</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1652,16 +1691,16 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.5326370757180157</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1673,21 +1712,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>179</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.5056179775280899</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1699,21 +1738,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.4680851063829787</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1725,21 +1764,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.4576271186440678</v>
+        <v>0.4908616187989556</v>
       </c>
       <c r="L33">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="M33">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1751,21 +1790,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.4470588235294118</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L34">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="M34">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1777,21 +1816,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>188</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.425</v>
+        <v>0.4441176470588235</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1803,21 +1842,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.410958904109589</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1829,21 +1868,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>43</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.401673640167364</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L37">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1855,21 +1894,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>143</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.4</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1881,21 +1920,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.3777777777777778</v>
+        <v>0.34375</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1907,21 +1946,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.3333333333333333</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1933,21 +1972,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.3255813953488372</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1959,21 +1998,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.2142857142857143</v>
+        <v>0.301255230125523</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1985,21 +2024,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>55</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.02996670366259711</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2011,111 +2050,215 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>874</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.02463605823068309</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>871</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.01616628175519631</v>
+        <v>0.03914988814317674</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>852</v>
+        <v>859</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.01307800093414292</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N46">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>2113</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.009990331936835321</v>
+        <v>0.02663706992230854</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K48">
+        <v>0.02003081664098613</v>
+      </c>
+      <c r="L48">
+        <v>13</v>
+      </c>
+      <c r="M48">
+        <v>14</v>
+      </c>
+      <c r="N48">
+        <v>0.93</v>
+      </c>
+      <c r="O48">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K49">
+        <v>0.01401214385801028</v>
+      </c>
+      <c r="L49">
+        <v>30</v>
+      </c>
+      <c r="M49">
+        <v>32</v>
+      </c>
+      <c r="N49">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O49">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50">
+        <v>0.0119201030927835</v>
+      </c>
+      <c r="L50">
+        <v>37</v>
+      </c>
+      <c r="M50">
+        <v>40</v>
+      </c>
+      <c r="N50">
+        <v>0.93</v>
+      </c>
+      <c r="O50">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51">
+        <v>0.005314160675211003</v>
+      </c>
+      <c r="L51">
+        <v>17</v>
+      </c>
+      <c r="M51">
+        <v>19</v>
+      </c>
+      <c r="N51">
         <v>0.89</v>
       </c>
-      <c r="O47">
+      <c r="O51">
         <v>0.11</v>
       </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>3072</v>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3182</v>
       </c>
     </row>
   </sheetData>
